--- a/schema.xlsx
+++ b/schema.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\alllinks-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC65AA7-3DE7-4C22-B1E0-659FF88C0E50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CE5DC-D8DA-4536-A0DF-89774CD10041}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="tenants" sheetId="4" r:id="rId2"/>
     <sheet name="links" sheetId="2" r:id="rId3"/>
     <sheet name="linkStyles" sheetId="3" r:id="rId4"/>
+    <sheet name="tenant_styles" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -57,9 +58,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -84,12 +82,6 @@
     <t>linkType</t>
   </si>
   <si>
-    <t>storyDesc</t>
-  </si>
-  <si>
-    <t>storyImg</t>
-  </si>
-  <si>
     <t>leapLinkTimeFrom</t>
   </si>
   <si>
@@ -127,6 +119,18 @@
   </si>
   <si>
     <t>account_type</t>
+  </si>
+  <si>
+    <t>tenantid</t>
+  </si>
+  <si>
+    <t>style_id</t>
+  </si>
+  <si>
+    <t>linkborder</t>
+  </si>
+  <si>
+    <t>linkBorder</t>
   </si>
 </sst>
 </file>
@@ -453,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -482,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +499,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,7 +509,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -530,12 +534,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -546,58 +550,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3727403F-EF20-4780-B039-6BE7EF846BB6}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -607,10 +624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +651,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,57 +664,47 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -709,12 +716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -725,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,17 +746,71 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6D8DC2-F6C3-48D0-8B6A-8DFB584F1CE4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
